--- a/SchedulingData/static7/pso/scheduling1_16.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.40000000000001</v>
+        <v>55.58</v>
       </c>
       <c r="E2" t="n">
-        <v>24.06</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.76000000000001</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>25.584</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>160.22</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>21.268</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>160.22</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>208.02</v>
+        <v>69.8</v>
       </c>
       <c r="E5" t="n">
-        <v>17.128</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>55.58</v>
       </c>
       <c r="D6" t="n">
-        <v>71.40000000000001</v>
+        <v>102.64</v>
       </c>
       <c r="E6" t="n">
-        <v>25.06</v>
+        <v>23.036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.7</v>
+        <v>61.12</v>
       </c>
       <c r="E7" t="n">
-        <v>26.1</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66.40000000000001</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>134.08</v>
+        <v>149.02</v>
       </c>
       <c r="E8" t="n">
-        <v>18.912</v>
+        <v>21.388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71.40000000000001</v>
+        <v>102.64</v>
       </c>
       <c r="D9" t="n">
-        <v>140.9</v>
+        <v>150.14</v>
       </c>
       <c r="E9" t="n">
-        <v>21.7</v>
+        <v>20.396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.7</v>
+        <v>61.12</v>
       </c>
       <c r="D10" t="n">
-        <v>146.72</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
-        <v>21.628</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>134.08</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>180.58</v>
+        <v>153.9</v>
       </c>
       <c r="E11" t="n">
-        <v>15.392</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>180.58</v>
+        <v>153.9</v>
       </c>
       <c r="D12" t="n">
-        <v>246.18</v>
+        <v>197.26</v>
       </c>
       <c r="E12" t="n">
-        <v>10.452</v>
+        <v>17.204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>146.72</v>
+        <v>149.02</v>
       </c>
       <c r="D13" t="n">
-        <v>198.28</v>
+        <v>218.72</v>
       </c>
       <c r="E13" t="n">
-        <v>18.092</v>
+        <v>16.528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>140.9</v>
+        <v>197.26</v>
       </c>
       <c r="D14" t="n">
-        <v>199.8</v>
+        <v>252</v>
       </c>
       <c r="E14" t="n">
-        <v>17.92</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>198.28</v>
+        <v>252</v>
       </c>
       <c r="D15" t="n">
-        <v>253.26</v>
+        <v>308.54</v>
       </c>
       <c r="E15" t="n">
-        <v>13.724</v>
+        <v>9.336</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>218.72</v>
       </c>
       <c r="D16" t="n">
-        <v>79.84</v>
+        <v>277.56</v>
       </c>
       <c r="E16" t="n">
-        <v>26.656</v>
+        <v>13.264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>79.84</v>
+        <v>119</v>
       </c>
       <c r="D17" t="n">
-        <v>132.04</v>
+        <v>180.1</v>
       </c>
       <c r="E17" t="n">
-        <v>22.576</v>
+        <v>17.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>208.02</v>
+        <v>69.8</v>
       </c>
       <c r="D18" t="n">
-        <v>248.44</v>
+        <v>142.62</v>
       </c>
       <c r="E18" t="n">
-        <v>14.216</v>
+        <v>22.528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>132.04</v>
+        <v>308.54</v>
       </c>
       <c r="D19" t="n">
-        <v>193.34</v>
+        <v>384.14</v>
       </c>
       <c r="E19" t="n">
-        <v>18.576</v>
+        <v>5.856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>246.18</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.44</v>
+        <v>68.72</v>
       </c>
       <c r="E20" t="n">
-        <v>7.856</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>253.26</v>
+        <v>150.14</v>
       </c>
       <c r="D21" t="n">
-        <v>301.06</v>
+        <v>229.22</v>
       </c>
       <c r="E21" t="n">
-        <v>11.084</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>308.44</v>
+        <v>384.14</v>
       </c>
       <c r="D22" t="n">
-        <v>355.94</v>
+        <v>438.08</v>
       </c>
       <c r="E22" t="n">
-        <v>5.216</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>193.34</v>
+        <v>438.08</v>
       </c>
       <c r="D23" t="n">
-        <v>246.16</v>
+        <v>506.9</v>
       </c>
       <c r="E23" t="n">
-        <v>14.924</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>248.44</v>
+        <v>277.56</v>
       </c>
       <c r="D24" t="n">
-        <v>310.14</v>
+        <v>326.14</v>
       </c>
       <c r="E24" t="n">
-        <v>11.136</v>
+        <v>10.536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>301.06</v>
+        <v>180.1</v>
       </c>
       <c r="D25" t="n">
-        <v>346.68</v>
+        <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>7.652</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>346.68</v>
+        <v>506.9</v>
       </c>
       <c r="D26" t="n">
-        <v>385.26</v>
+        <v>577.9400000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>4.924</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>68.72</v>
       </c>
       <c r="D27" t="n">
-        <v>55.3</v>
+        <v>129.02</v>
       </c>
       <c r="E27" t="n">
-        <v>26.64</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="28">
@@ -960,93 +960,93 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55.3</v>
+        <v>142.62</v>
       </c>
       <c r="D28" t="n">
-        <v>124.9</v>
+        <v>209.12</v>
       </c>
       <c r="E28" t="n">
-        <v>21.32</v>
+        <v>19.008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>199.8</v>
+        <v>129.02</v>
       </c>
       <c r="D29" t="n">
-        <v>256.2</v>
+        <v>184.48</v>
       </c>
       <c r="E29" t="n">
-        <v>14.4</v>
+        <v>18.472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>256.2</v>
+        <v>209.12</v>
       </c>
       <c r="D30" t="n">
-        <v>322.66</v>
+        <v>259.42</v>
       </c>
       <c r="E30" t="n">
-        <v>10.864</v>
+        <v>16.088</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>355.94</v>
+        <v>184.48</v>
       </c>
       <c r="D31" t="n">
-        <v>399.78</v>
+        <v>257.2</v>
       </c>
       <c r="E31" t="n">
-        <v>1.472</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>399.78</v>
+        <v>246.3</v>
       </c>
       <c r="D32" t="n">
-        <v>468.74</v>
+        <v>315.7</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="33">
@@ -1055,93 +1055,93 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>385.26</v>
+        <v>229.22</v>
       </c>
       <c r="D33" t="n">
-        <v>443.42</v>
+        <v>270.98</v>
       </c>
       <c r="E33" t="n">
-        <v>1.228</v>
+        <v>13.032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>443.42</v>
+        <v>326.14</v>
       </c>
       <c r="D34" t="n">
-        <v>537.46</v>
+        <v>380.7</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>124.9</v>
+        <v>380.7</v>
       </c>
       <c r="D35" t="n">
-        <v>183.02</v>
+        <v>436.76</v>
       </c>
       <c r="E35" t="n">
-        <v>17.628</v>
+        <v>2.244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>322.66</v>
+        <v>259.42</v>
       </c>
       <c r="D36" t="n">
-        <v>372.72</v>
+        <v>316.62</v>
       </c>
       <c r="E36" t="n">
-        <v>8.488</v>
+        <v>13.008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>183.02</v>
+        <v>270.98</v>
       </c>
       <c r="D37" t="n">
-        <v>234.08</v>
+        <v>322.52</v>
       </c>
       <c r="E37" t="n">
-        <v>13.652</v>
+        <v>10.008</v>
       </c>
     </row>
     <row r="38">
@@ -1150,93 +1150,93 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>310.14</v>
+        <v>257.2</v>
       </c>
       <c r="D38" t="n">
-        <v>388.68</v>
+        <v>349.24</v>
       </c>
       <c r="E38" t="n">
-        <v>7.872</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>537.46</v>
+        <v>349.24</v>
       </c>
       <c r="D39" t="n">
-        <v>599.78</v>
+        <v>414.34</v>
       </c>
       <c r="E39" t="n">
-        <v>26.928</v>
+        <v>7.796</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>234.08</v>
+        <v>414.34</v>
       </c>
       <c r="D40" t="n">
-        <v>293.46</v>
+        <v>468.34</v>
       </c>
       <c r="E40" t="n">
-        <v>9.824</v>
+        <v>4.516</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>372.72</v>
+        <v>322.52</v>
       </c>
       <c r="D41" t="n">
-        <v>419.36</v>
+        <v>377.22</v>
       </c>
       <c r="E41" t="n">
-        <v>5.464</v>
+        <v>6.648</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>599.78</v>
+        <v>468.34</v>
       </c>
       <c r="D42" t="n">
-        <v>672.6799999999999</v>
+        <v>512.1799999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>22.768</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>388.68</v>
+        <v>512.1799999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>444.92</v>
+        <v>582.54</v>
       </c>
       <c r="E43" t="n">
-        <v>4.848</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1264,71 +1264,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>293.46</v>
+        <v>316.62</v>
       </c>
       <c r="D44" t="n">
-        <v>350.1</v>
+        <v>383.72</v>
       </c>
       <c r="E44" t="n">
-        <v>5.3</v>
+        <v>8.928000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>468.74</v>
+        <v>377.22</v>
       </c>
       <c r="D45" t="n">
-        <v>554.4400000000001</v>
+        <v>427.02</v>
       </c>
       <c r="E45" t="n">
-        <v>26.08</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>419.36</v>
+        <v>427.02</v>
       </c>
       <c r="D46" t="n">
-        <v>492.28</v>
+        <v>487.08</v>
       </c>
       <c r="E46" t="n">
-        <v>2.272</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>492.28</v>
+        <v>487.08</v>
       </c>
       <c r="D47" t="n">
-        <v>574.54</v>
+        <v>591.66</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1336,40 +1336,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>574.54</v>
+        <v>383.72</v>
       </c>
       <c r="D48" t="n">
-        <v>639.5</v>
+        <v>430.64</v>
       </c>
       <c r="E48" t="n">
-        <v>27.144</v>
+        <v>5.856</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>246.16</v>
+        <v>591.66</v>
       </c>
       <c r="D49" t="n">
-        <v>344.6</v>
+        <v>648.0599999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>10.66</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="50">
@@ -1378,52 +1378,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>639.5</v>
+        <v>315.7</v>
       </c>
       <c r="D50" t="n">
-        <v>685.54</v>
+        <v>377.36</v>
       </c>
       <c r="E50" t="n">
-        <v>24.18</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>444.92</v>
+        <v>377.36</v>
       </c>
       <c r="D51" t="n">
-        <v>511.96</v>
+        <v>431.86</v>
       </c>
       <c r="E51" t="n">
-        <v>1.724</v>
+        <v>2.684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>511.96</v>
+        <v>431.86</v>
       </c>
       <c r="D52" t="n">
-        <v>585.51</v>
+        <v>537.79</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1431,97 +1431,97 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>585.51</v>
+        <v>537.79</v>
       </c>
       <c r="D53" t="n">
-        <v>642.21</v>
+        <v>601.59</v>
       </c>
       <c r="E53" t="n">
-        <v>26.52</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>672.6799999999999</v>
+        <v>577.9400000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>741.38</v>
+        <v>614.58</v>
       </c>
       <c r="E54" t="n">
-        <v>18.988</v>
+        <v>24.012</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>344.6</v>
+        <v>601.59</v>
       </c>
       <c r="D55" t="n">
-        <v>416.32</v>
+        <v>651.91</v>
       </c>
       <c r="E55" t="n">
-        <v>7.588</v>
+        <v>23.368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>554.4400000000001</v>
+        <v>430.64</v>
       </c>
       <c r="D56" t="n">
-        <v>648.9400000000001</v>
+        <v>478.14</v>
       </c>
       <c r="E56" t="n">
-        <v>21.22</v>
+        <v>3.216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>416.32</v>
+        <v>582.54</v>
       </c>
       <c r="D57" t="n">
-        <v>486.62</v>
+        <v>642.14</v>
       </c>
       <c r="E57" t="n">
-        <v>4.668</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="58">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>486.62</v>
+        <v>436.76</v>
       </c>
       <c r="D58" t="n">
-        <v>554.92</v>
+        <v>518.87</v>
       </c>
       <c r="E58" t="n">
-        <v>0.948</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1549,22 +1549,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>554.92</v>
+        <v>518.87</v>
       </c>
       <c r="D59" t="n">
-        <v>639.62</v>
+        <v>585.27</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>685.54</v>
+        <v>478.14</v>
       </c>
       <c r="D60" t="n">
-        <v>740.66</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>21.268</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="61">
@@ -1587,36 +1587,55 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>350.1</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>423.7</v>
+        <v>609.75</v>
       </c>
       <c r="E61" t="n">
-        <v>2.02</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>642.21</v>
+        <v>585.27</v>
       </c>
       <c r="D62" t="n">
-        <v>731.61</v>
+        <v>651.99</v>
       </c>
       <c r="E62" t="n">
-        <v>24.16</v>
+        <v>20.988</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>614.58</v>
+      </c>
+      <c r="D63" t="n">
+        <v>654.54</v>
+      </c>
+      <c r="E63" t="n">
+        <v>21.156</v>
       </c>
     </row>
   </sheetData>
